--- a/biology/Médecine/Cholestérol,_le_grand_bluff/Cholestérol,_le_grand_bluff.xlsx
+++ b/biology/Médecine/Cholestérol,_le_grand_bluff/Cholestérol,_le_grand_bluff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cholest%C3%A9rol,_le_grand_bluff</t>
+          <t>Cholestérol,_le_grand_bluff</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cholestérol, le grand bluff (en allemand : Cholesterin, der große Bluff) est un film documentaire réalisé en 2016 par la réalisatrice et journaliste française Anne Georget et diffusé pour la première fois en télévision le mardi 18 octobre 2016 sur la chaîne Arte[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cholestérol, le grand bluff (en allemand : Cholesterin, der große Bluff) est un film documentaire réalisé en 2016 par la réalisatrice et journaliste française Anne Georget et diffusé pour la première fois en télévision le mardi 18 octobre 2016 sur la chaîne Arte.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cholest%C3%A9rol,_le_grand_bluff</t>
+          <t>Cholestérol,_le_grand_bluff</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Produit par Quark Productions et Arte, ce documentaire de 83 minutes vu par 1,4 million de téléspectateurs[2] cherche à montrer comment le cholestérol a été érigé en coupable idéal des maladies cardio-vasculaires par une série d'approximations scientifiques et par les intérêts économiques conjugués de l'industrie agroalimentaire et des laboratoires pharmaceutiques[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Produit par Quark Productions et Arte, ce documentaire de 83 minutes vu par 1,4 million de téléspectateurs cherche à montrer comment le cholestérol a été érigé en coupable idéal des maladies cardio-vasculaires par une série d'approximations scientifiques et par les intérêts économiques conjugués de l'industrie agroalimentaire et des laboratoires pharmaceutiques.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cholest%C3%A9rol,_le_grand_bluff</t>
+          <t>Cholestérol,_le_grand_bluff</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Critiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Société française de cardiologie[2], la Société belge d'athérosclérose, l'Association belge des patients souffrant d'hypercholestérolémie familiale et la Ligue cardiologique belge[3],[4],[5] se sont indignées officiellement de ce « reportage tout à fait déséquilibré » qui « relèverait de la théorie du complot » en remettant en cause des observations scientifiques parmi les mieux démontrées en médecine préventive[2] (l'effet protecteur des statines sur la santé cardiovasculaire et sa sécurité sur tous les autres systèmes).
-L'Académie nationale de médecine rappelle quant à elle que ce documentaire ne doit pas faire croire au gens que le cholestérol est sans danger[6]. Les sociétés scientifiques et des associations de patients critique le manque de scientificité du documentaire[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Société française de cardiologie, la Société belge d'athérosclérose, l'Association belge des patients souffrant d'hypercholestérolémie familiale et la Ligue cardiologique belge se sont indignées officiellement de ce « reportage tout à fait déséquilibré » qui « relèverait de la théorie du complot » en remettant en cause des observations scientifiques parmi les mieux démontrées en médecine préventive (l'effet protecteur des statines sur la santé cardiovasculaire et sa sécurité sur tous les autres systèmes).
+L'Académie nationale de médecine rappelle quant à elle que ce documentaire ne doit pas faire croire au gens que le cholestérol est sans danger. Les sociétés scientifiques et des associations de patients critique le manque de scientificité du documentaire.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cholest%C3%A9rol,_le_grand_bluff</t>
+          <t>Cholestérol,_le_grand_bluff</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Presse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le documentaire est accueillit de façon mitigé par le magazine Notre Temps qui tente de le décrypter [8] de la même façon que La Croix[9].
-De leur côté, Radio France salue l'enquête mener par le documentaire[10] de même que Le Nouvel Obs[11] , Télérama[12] et Libération[13].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le documentaire est accueillit de façon mitigé par le magazine Notre Temps qui tente de le décrypter  de la même façon que La Croix.
+De leur côté, Radio France salue l'enquête mener par le documentaire de même que Le Nouvel Obs , Télérama et Libération.
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cholest%C3%A9rol,_le_grand_bluff</t>
+          <t>Cholestérol,_le_grand_bluff</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,8 +626,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prix
-En 2017, le documentaire reçoit le « Prix du public » lors du Festival international du film scientifique organisé par l’Association Science &amp; Télévision[14].
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2017, le documentaire reçoit le « Prix du public » lors du Festival international du film scientifique organisé par l’Association Science &amp; Télévision.
 </t>
         </is>
       </c>
